--- a/Temporal_timechart.xlsx
+++ b/Temporal_timechart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\am_temporal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B89208-A795-4802-B72C-F0F22B7A3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C470C57-46F2-4855-8A1B-10ED92E92AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD3CA7D9-D8ED-4878-B3EA-BAB1C8C6A178}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Launcher</t>
   </si>
@@ -39,63 +39,89 @@
     <t>Activity Queue</t>
   </si>
   <si>
-    <t>TMP processor</t>
-  </si>
-  <si>
-    <t>Activity Worker1</t>
-  </si>
-  <si>
-    <t>Activity Worker2</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Accept</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>+wf param</t>
-  </si>
-  <si>
     <t>get param</t>
   </si>
   <si>
-    <t>kickoff</t>
-  </si>
-  <si>
-    <t>Result2</t>
-  </si>
-  <si>
-    <t>Done1</t>
-  </si>
-  <si>
-    <t>Done2</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t>Wait 4 wf</t>
   </si>
   <si>
-    <t>kickoff1</t>
-  </si>
-  <si>
-    <t>result1</t>
-  </si>
-  <si>
-    <t>Result1</t>
+    <t>…working</t>
+  </si>
+  <si>
+    <t>Temporal processor</t>
+  </si>
+  <si>
+    <t>Done A1</t>
+  </si>
+  <si>
+    <t>Done A2</t>
+  </si>
+  <si>
+    <t>running AW1</t>
+  </si>
+  <si>
+    <t>running AW2</t>
+  </si>
+  <si>
+    <t>running WW</t>
+  </si>
+  <si>
+    <t>Activity1 Worker</t>
+  </si>
+  <si>
+    <t>Activity2 Worker</t>
+  </si>
+  <si>
+    <t>Start WF</t>
+  </si>
+  <si>
+    <t>Accept WF</t>
+  </si>
+  <si>
+    <t>Add WF</t>
+  </si>
+  <si>
+    <t>WF param</t>
+  </si>
+  <si>
+    <t>Accept WF.A1</t>
+  </si>
+  <si>
+    <t>add WF.A1</t>
+  </si>
+  <si>
+    <t>result WF.A1</t>
+  </si>
+  <si>
+    <t>Accept WF.A2</t>
+  </si>
+  <si>
+    <t>add WF.A2</t>
+  </si>
+  <si>
+    <t>result WF.A2</t>
+  </si>
+  <si>
+    <t>save res</t>
+  </si>
+  <si>
+    <t>Done WF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,12 +149,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B82016F-55A1-4564-A607-7AF9B2E77B92}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,103 +486,146 @@
     <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Temporal_timechart.xlsx
+++ b/Temporal_timechart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\am_temporal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C470C57-46F2-4855-8A1B-10ED92E92AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60755981-82B9-4E35-877C-C63D815DD878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD3CA7D9-D8ED-4878-B3EA-BAB1C8C6A178}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Launcher</t>
   </si>
   <si>
-    <t>WF Worker</t>
-  </si>
-  <si>
     <t>Workflow Queue</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>get param</t>
   </si>
   <si>
-    <t>Wait 4 wf</t>
-  </si>
-  <si>
     <t>…working</t>
   </si>
   <si>
@@ -57,15 +51,6 @@
     <t>Done A2</t>
   </si>
   <si>
-    <t>running AW1</t>
-  </si>
-  <si>
-    <t>running AW2</t>
-  </si>
-  <si>
-    <t>running WW</t>
-  </si>
-  <si>
     <t>Activity1 Worker</t>
   </si>
   <si>
@@ -102,10 +87,25 @@
     <t>result WF.A2</t>
   </si>
   <si>
+    <t>save result</t>
+  </si>
+  <si>
     <t>save res</t>
   </si>
   <si>
     <t>Done WF</t>
+  </si>
+  <si>
+    <t>Worflow Worker</t>
+  </si>
+  <si>
+    <t>run WW</t>
+  </si>
+  <si>
+    <t>run A1W</t>
+  </si>
+  <si>
+    <t>run A2W</t>
   </si>
 </sst>
 </file>
@@ -129,15 +129,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -145,22 +175,461 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,159 +944,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B82016F-55A1-4564-A607-7AF9B2E77B92}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="H22" sqref="B1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>5</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>11</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>13</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="2" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="44" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>19</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="53">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="C22" s="51"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
